--- a/app/public/ShiftSortingHat_InputTemplate.xlsx
+++ b/app/public/ShiftSortingHat_InputTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" state="visible" r:id="rId2"/>
@@ -326,118 +326,118 @@
     <t xml:space="preserve">PreAssignedPoints</t>
   </si>
   <si>
-    <t xml:space="preserve">Volunteer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volunteer 38</t>
+    <t xml:space="preserve">Sam Vimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrot Ironfoundersson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angua von Überwald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheery Littlebottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fred Colon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobby Nobbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detritus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moist von Lipwig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lord Vetinari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adora Belle Dearheart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William de Worde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otto Chriek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susan Sto Helit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rincewind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twoflower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Luggage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granny Weatherwax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanny Ogg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magrat Garlick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiffany Aching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nac Mac Feegle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cohen the Barbarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonard of Quirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death of Rats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridcully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Librarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponder Stibbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Teatime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Auditors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaspode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut-Me-Own-Throat Dibbler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havelock Vetinari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esmerelda Weatherwax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brutha</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:G987"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4591,12 +4591,13 @@
   </sheetPr>
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.39"/>
   </cols>
   <sheetData>
@@ -4759,7 +4760,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="0" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="6"/>
@@ -4780,7 +4781,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="0" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="6"/>
@@ -4801,7 +4802,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="0" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="6"/>
@@ -4822,7 +4823,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="0" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="6"/>
@@ -4843,7 +4844,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="0" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="6"/>
@@ -4864,7 +4865,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="0" t="s">
         <v>106</v>
       </c>
       <c r="B7" s="6"/>
@@ -4885,7 +4886,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="0" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="6"/>
@@ -4906,7 +4907,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="0" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="6"/>
@@ -4927,7 +4928,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="0" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="6"/>
@@ -4948,7 +4949,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="0" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="6"/>
@@ -4969,7 +4970,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="0" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="6"/>
@@ -4990,7 +4991,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="0" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="6"/>
@@ -5011,7 +5012,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="0" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="6"/>
@@ -5032,7 +5033,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="0" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="6"/>
@@ -5053,7 +5054,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="0" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="6"/>
@@ -5074,7 +5075,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="0" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="6"/>
@@ -5095,7 +5096,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="0" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="6"/>
@@ -5116,7 +5117,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="0" t="s">
         <v>118</v>
       </c>
       <c r="B19" s="6"/>
@@ -5137,7 +5138,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="0" t="s">
         <v>119</v>
       </c>
       <c r="B20" s="6"/>
@@ -5158,7 +5159,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="0" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="6"/>
@@ -5179,7 +5180,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="0" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="6"/>
@@ -5200,7 +5201,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="0" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="6"/>
@@ -5221,7 +5222,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="0" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="6"/>
@@ -5242,7 +5243,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="0" t="s">
         <v>124</v>
       </c>
       <c r="B25" s="6"/>
@@ -5263,7 +5264,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="0" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="6"/>
@@ -5284,7 +5285,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="0" t="s">
         <v>126</v>
       </c>
       <c r="B27" s="6"/>
@@ -5305,7 +5306,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="0" t="s">
         <v>127</v>
       </c>
       <c r="B28" s="6"/>
@@ -5326,7 +5327,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="0" t="s">
         <v>128</v>
       </c>
       <c r="B29" s="6"/>
@@ -5347,7 +5348,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="0" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="6"/>
@@ -5368,7 +5369,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="0" t="s">
         <v>130</v>
       </c>
       <c r="B31" s="6"/>
@@ -5389,7 +5390,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="0" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="6"/>
@@ -5410,7 +5411,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="0" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="6"/>
@@ -5431,7 +5432,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="0" t="s">
         <v>133</v>
       </c>
       <c r="B34" s="6"/>
@@ -5452,7 +5453,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="0" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="6"/>
@@ -5473,7 +5474,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="0" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="6"/>
@@ -5494,7 +5495,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="0" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="6"/>
@@ -5515,7 +5516,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="0" t="s">
         <v>137</v>
       </c>
       <c r="B38" s="6"/>
@@ -5536,7 +5537,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="0" t="s">
         <v>138</v>
       </c>
       <c r="B39" s="6"/>

--- a/app/public/ShiftSortingHat_InputTemplate.xlsx
+++ b/app/public/ShiftSortingHat_InputTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Shifts" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
   <si>
     <t xml:space="preserve">ShiftID</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Saturday, Aug 23</t>
   </si>
   <si>
-    <t xml:space="preserve">Trash, Compost, Recycling Management, Burnables</t>
+    <t xml:space="preserve">Trash</t>
   </si>
   <si>
     <t xml:space="preserve">002</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">003</t>
   </si>
   <si>
-    <t xml:space="preserve">Breakfast Prep, Coffee/Water Fills, Clean-Up / Cold Breakfast</t>
+    <t xml:space="preserve">Breakfast Prep</t>
   </si>
   <si>
     <t xml:space="preserve">004</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinner Prep, Food Run, Meal Portioning, Clean-Up, Gray Water Bin Empty, Coffee Prep</t>
+    <t xml:space="preserve">Dinner Prep</t>
   </si>
   <si>
     <t xml:space="preserve">005</t>
@@ -80,25 +80,22 @@
     <t xml:space="preserve">006</t>
   </si>
   <si>
-    <t xml:space="preserve">Breakfast Prep, Coffee/Water Fills, Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">007</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx Set-Up, Bartending, Clean-Up</t>
+    <t xml:space="preserve">Bartending</t>
   </si>
   <si>
     <t xml:space="preserve">008</t>
   </si>
   <si>
-    <t xml:space="preserve">ID Check, Barback, Clean-Up</t>
+    <t xml:space="preserve">Bar Back</t>
   </si>
   <si>
     <t xml:space="preserve">009</t>
   </si>
   <si>
-    <t xml:space="preserve">Floater, Barker, Gogo, Interactivity, Bike Parking, Clean-Up</t>
+    <t xml:space="preserve">Clean-Up</t>
   </si>
   <si>
     <t xml:space="preserve">010</t>
@@ -116,51 +113,42 @@
     <t xml:space="preserve">013</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Run &amp; xxx Bar Set-Up</t>
+    <t xml:space="preserve">Ice Run</t>
   </si>
   <si>
     <t xml:space="preserve">014</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx , Early Shift</t>
+    <t xml:space="preserve">Bartending, Early Shift</t>
   </si>
   <si>
     <t xml:space="preserve">015</t>
   </si>
   <si>
-    <t xml:space="preserve">Floater, Barker, Gogo Dancers, Interactivity, Bike Parking Early Shift</t>
+    <t xml:space="preserve">Bike Parking</t>
   </si>
   <si>
     <t xml:space="preserve">016</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx Table Prep, Management, Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">017</t>
   </si>
   <si>
-    <t xml:space="preserve">ID Check, Barback Early Shift</t>
-  </si>
-  <si>
     <t xml:space="preserve">018</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx, Late Shift</t>
+    <t xml:space="preserve">Bartending, Late Shift</t>
   </si>
   <si>
     <t xml:space="preserve">019</t>
   </si>
   <si>
-    <t xml:space="preserve">Floater, Barker, Gogo Dancers, Interactivity, Bike Parking, Clean-Up Late Shift</t>
+    <t xml:space="preserve">Breakfast Prep*</t>
   </si>
   <si>
     <t xml:space="preserve">020</t>
   </si>
   <si>
-    <t xml:space="preserve">ID Check, Barback, Clean-Up Late Shift</t>
-  </si>
-  <si>
     <t xml:space="preserve">021</t>
   </si>
   <si>
@@ -176,63 +164,36 @@
     <t xml:space="preserve">024</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Run xxx &amp; xxx Set-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">025</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx barbacks (BoH prep, refills, trash)</t>
-  </si>
-  <si>
     <t xml:space="preserve">026</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx Bartending, Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">027</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx Floater, Barker, Interactivity,  Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">028</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx Drink Runners (alcoholic)</t>
+    <t xml:space="preserve">Drink Runners</t>
   </si>
   <si>
     <t xml:space="preserve">029</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx Drink Runners (non alcoholic)</t>
-  </si>
-  <si>
     <t xml:space="preserve">030</t>
   </si>
   <si>
-    <t xml:space="preserve">Bike Parking</t>
-  </si>
-  <si>
     <t xml:space="preserve">031</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx &amp; Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">032</t>
   </si>
   <si>
-    <t xml:space="preserve">Floater, Barker, Interactivity,  Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">033</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinner Prep, Food Run, Meal Portioning, Clean-Up, Gray Water Bin Empty, Water Tank Refill</t>
-  </si>
-  <si>
     <t xml:space="preserve">034</t>
   </si>
   <si>
@@ -245,33 +206,18 @@
     <t xml:space="preserve">036</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Run &amp; xxx Bar Set-Up, xxx early shift</t>
-  </si>
-  <si>
     <t xml:space="preserve">037</t>
   </si>
   <si>
-    <t xml:space="preserve">xxx, Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">038</t>
   </si>
   <si>
-    <t xml:space="preserve">Bar Back, Interactivity Nymphs</t>
-  </si>
-  <si>
     <t xml:space="preserve">039</t>
   </si>
   <si>
-    <t xml:space="preserve">Floater, Barker, Bike Parking, Clean-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">040</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinner Prep, Food Run, Meal Portioning, Clean-Up, Gray Water Bin Empty, Coffee Prep, Burnables</t>
-  </si>
-  <si>
     <t xml:space="preserve">041</t>
   </si>
   <si>
@@ -284,9 +230,6 @@
     <t xml:space="preserve">043</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Run &amp; Bar Set-Up</t>
-  </si>
-  <si>
     <t xml:space="preserve">044</t>
   </si>
   <si>
@@ -305,16 +248,10 @@
     <t xml:space="preserve">048</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinner Prep, Food Run, Meal Portioning, Clean-Up, Gray Water Bin Empty, Coffee Prep, NO BURNABLES</t>
-  </si>
-  <si>
     <t xml:space="preserve">049</t>
   </si>
   <si>
     <t xml:space="preserve">Sunday, Aug 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trash, Compost, Recycling Management</t>
   </si>
   <si>
     <t xml:space="preserve">050</t>
@@ -575,10 +512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G987"/>
+  <dimension ref="A1:M987"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0.291666666666667</v>
@@ -755,13 +692,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0.8125</v>
@@ -778,13 +715,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>0.833333333333333</v>
@@ -801,13 +738,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0.833333333333333</v>
@@ -824,7 +761,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
@@ -847,10 +784,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -870,10 +807,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -893,13 +830,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>0.5</v>
@@ -916,13 +853,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>0.5625</v>
@@ -939,13 +876,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D16" s="4" t="n">
         <v>0.5625</v>
@@ -962,13 +899,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>0.583333333333333</v>
@@ -985,13 +922,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>0.5625</v>
@@ -1008,13 +945,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>0.666666666666667</v>
@@ -1031,13 +968,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>0.666666666666667</v>
@@ -1051,16 +988,19 @@
       <c r="G20" s="5" t="n">
         <v>2.5</v>
       </c>
+      <c r="M20" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>0.666666666666667</v>
@@ -1077,10 +1017,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>15</v>
@@ -1100,10 +1040,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -1123,13 +1063,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D24" s="4" t="n">
         <v>0.333333333333333</v>
@@ -1146,13 +1086,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="n">
         <v>0.395833333333333</v>
@@ -1169,13 +1109,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>0.5</v>
@@ -1192,13 +1132,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D27" s="4" t="n">
         <v>0.5</v>
@@ -1215,13 +1155,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>0.5</v>
@@ -1238,13 +1178,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>0.5</v>
@@ -1261,13 +1201,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>0.5</v>
@@ -1284,13 +1224,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>0.5</v>
@@ -1307,13 +1247,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D32" s="4" t="n">
         <v>0.583333333333333</v>
@@ -1330,13 +1270,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D33" s="4" t="n">
         <v>0.583333333333333</v>
@@ -1353,13 +1293,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4" t="n">
         <v>0.708333333333333</v>
@@ -1376,10 +1316,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -1399,10 +1339,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
@@ -1422,13 +1362,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D37" s="4" t="n">
         <v>0.520833333333333</v>
@@ -1445,13 +1385,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>0.625</v>
@@ -1468,13 +1408,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="n">
         <v>0.583333333333333</v>
@@ -1491,13 +1431,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>0.583333333333333</v>
@@ -1514,13 +1454,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D41" s="4" t="n">
         <v>0.708333333333333</v>
@@ -1537,10 +1477,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -1560,13 +1500,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D43" s="4" t="n">
         <v>0.333333333333333</v>
@@ -1583,13 +1523,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D44" s="4" t="n">
         <v>0.458333333333333</v>
@@ -1606,13 +1546,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D45" s="4" t="n">
         <v>0.520833333333333</v>
@@ -1629,13 +1569,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>0.708333333333333</v>
@@ -1652,10 +1592,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
@@ -1675,10 +1615,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -1698,13 +1638,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>0.708333333333333</v>
@@ -1721,13 +1661,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>0.333333333333333</v>
@@ -1744,13 +1684,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>0.333333333333333</v>
@@ -4591,22 +4531,22 @@
   </sheetPr>
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C1" s="6" t="n">
         <v>1</v>
@@ -4760,8 +4700,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>101</v>
+      <c r="A2" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="6"/>
       <c r="O2" s="6" t="n">
@@ -4781,8 +4721,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>102</v>
+      <c r="A3" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B3" s="6"/>
       <c r="K3" s="6" t="n">
@@ -4802,8 +4742,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>103</v>
+      <c r="A4" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="6" t="n">
@@ -4823,8 +4763,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>104</v>
+      <c r="A5" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B5" s="6"/>
       <c r="E5" s="6" t="n">
@@ -4844,8 +4784,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>105</v>
+      <c r="A6" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="6"/>
       <c r="P6" s="6" t="n">
@@ -4865,8 +4805,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>106</v>
+      <c r="A7" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="6"/>
       <c r="F7" s="6" t="n">
@@ -4886,8 +4826,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>107</v>
+      <c r="A8" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="6"/>
       <c r="F8" s="6" t="n">
@@ -4907,8 +4847,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>108</v>
+      <c r="A9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B9" s="6"/>
       <c r="F9" s="6" t="n">
@@ -4928,8 +4868,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>109</v>
+      <c r="A10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B10" s="6"/>
       <c r="O10" s="6" t="n">
@@ -4949,8 +4889,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>110</v>
+      <c r="A11" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="n">
@@ -4970,8 +4910,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>111</v>
+      <c r="A12" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="6" t="n">
@@ -4991,8 +4931,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>112</v>
+      <c r="A13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B13" s="6"/>
       <c r="E13" s="6" t="n">
@@ -5012,8 +4952,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>113</v>
+      <c r="A14" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="n">
@@ -5033,8 +4973,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>114</v>
+      <c r="A15" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="n">
@@ -5054,8 +4994,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>115</v>
+      <c r="A16" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="n">
@@ -5075,8 +5015,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>116</v>
+      <c r="A17" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="n">
@@ -5096,8 +5036,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>117</v>
+      <c r="A18" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="n">
@@ -5117,8 +5057,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>118</v>
+      <c r="A19" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="n">
@@ -5138,8 +5078,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>119</v>
+      <c r="A20" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B20" s="6"/>
       <c r="J20" s="6" t="n">
@@ -5159,8 +5099,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>120</v>
+      <c r="A21" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B21" s="6"/>
       <c r="J21" s="6" t="n">
@@ -5180,8 +5120,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>121</v>
+      <c r="A22" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="6"/>
       <c r="J22" s="6" t="n">
@@ -5201,8 +5141,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>122</v>
+      <c r="A23" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B23" s="6"/>
       <c r="K23" s="6" t="n">
@@ -5222,8 +5162,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>123</v>
+      <c r="A24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B24" s="6"/>
       <c r="P24" s="6" t="n">
@@ -5243,8 +5183,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>124</v>
+      <c r="A25" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B25" s="6"/>
       <c r="K25" s="6" t="n">
@@ -5264,8 +5204,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>125</v>
+      <c r="A26" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B26" s="6"/>
       <c r="O26" s="6" t="n">
@@ -5285,8 +5225,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>126</v>
+      <c r="A27" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B27" s="6"/>
       <c r="G27" s="6" t="n">
@@ -5306,8 +5246,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>127</v>
+      <c r="A28" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B28" s="6"/>
       <c r="F28" s="6" t="n">
@@ -5327,8 +5267,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>128</v>
+      <c r="A29" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B29" s="6"/>
       <c r="P29" s="6" t="n">
@@ -5348,8 +5288,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>129</v>
+      <c r="A30" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B30" s="6"/>
       <c r="G30" s="6" t="n">
@@ -5369,8 +5309,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>130</v>
+      <c r="A31" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B31" s="6"/>
       <c r="E31" s="6" t="n">
@@ -5390,8 +5330,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>131</v>
+      <c r="A32" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B32" s="6"/>
       <c r="I32" s="6" t="n">
@@ -5411,8 +5351,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>132</v>
+      <c r="A33" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B33" s="6"/>
       <c r="D33" s="6" t="n">
@@ -5432,8 +5372,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>133</v>
+      <c r="A34" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="n">
@@ -5453,8 +5393,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>134</v>
+      <c r="A35" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B35" s="6"/>
       <c r="I35" s="6" t="n">
@@ -5474,8 +5414,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>135</v>
+      <c r="A36" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="n">
@@ -5495,8 +5435,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>136</v>
+      <c r="A37" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B37" s="6"/>
       <c r="H37" s="6" t="n">
@@ -5516,8 +5456,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>137</v>
+      <c r="A38" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B38" s="6"/>
       <c r="O38" s="6" t="n">
@@ -5537,8 +5477,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>138</v>
+      <c r="A39" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B39" s="6"/>
       <c r="H39" s="6" t="n">

--- a/app/public/ShiftSortingHat_InputTemplate.xlsx
+++ b/app/public/ShiftSortingHat_InputTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="117">
   <si>
     <t xml:space="preserve">ShiftID</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breakfast Prep*</t>
   </si>
   <si>
     <t xml:space="preserve">020</t>
@@ -514,8 +511,8 @@
   </sheetPr>
   <dimension ref="A1:M987"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,13 +985,11 @@
       <c r="G20" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>40</v>
-      </c>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>27</v>
@@ -1017,7 +1012,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -1040,10 +1035,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -1063,10 +1058,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
@@ -1086,10 +1081,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
@@ -1109,10 +1104,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>22</v>
@@ -1132,10 +1127,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
@@ -1155,10 +1150,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>24</v>
@@ -1178,13 +1173,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>0.5</v>
@@ -1201,13 +1196,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>0.5</v>
@@ -1224,10 +1219,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>34</v>
@@ -1247,10 +1242,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>24</v>
@@ -1270,10 +1265,10 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
@@ -1293,10 +1288,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>15</v>
@@ -1316,10 +1311,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -1339,10 +1334,10 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
@@ -1362,10 +1357,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>30</v>
@@ -1385,10 +1380,10 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>24</v>
@@ -1408,10 +1403,10 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>22</v>
@@ -1431,10 +1426,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>24</v>
@@ -1454,10 +1449,10 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>15</v>
@@ -1477,10 +1472,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
@@ -1500,10 +1495,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>13</v>
@@ -1523,10 +1518,10 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>30</v>
@@ -1546,10 +1541,10 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>24</v>
@@ -1569,10 +1564,10 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>15</v>
@@ -1592,10 +1587,10 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
@@ -1615,10 +1610,10 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -1638,10 +1633,10 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>15</v>
@@ -1661,10 +1656,10 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
@@ -1684,10 +1679,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
@@ -4531,7 +4526,7 @@
   </sheetPr>
   <dimension ref="A1:AZ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -4543,10 +4538,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="C1" s="6" t="n">
         <v>1</v>
@@ -4701,7 +4696,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6"/>
       <c r="O2" s="6" t="n">
@@ -4722,7 +4717,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="6"/>
       <c r="K3" s="6" t="n">
@@ -4743,7 +4738,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6"/>
       <c r="D4" s="6" t="n">
@@ -4764,7 +4759,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6"/>
       <c r="E5" s="6" t="n">
@@ -4785,7 +4780,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6"/>
       <c r="P6" s="6" t="n">
@@ -4806,7 +4801,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="6"/>
       <c r="F7" s="6" t="n">
@@ -4827,7 +4822,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="6"/>
       <c r="F8" s="6" t="n">
@@ -4848,7 +4843,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="6"/>
       <c r="F9" s="6" t="n">
@@ -4869,7 +4864,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="6"/>
       <c r="O10" s="6" t="n">
@@ -4890,7 +4885,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="n">
@@ -4911,7 +4906,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="6"/>
       <c r="D12" s="6" t="n">
@@ -4932,7 +4927,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="6"/>
       <c r="E13" s="6" t="n">
@@ -4953,7 +4948,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="n">
@@ -4974,7 +4969,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="n">
@@ -4995,7 +4990,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="n">
@@ -5016,7 +5011,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="n">
@@ -5037,7 +5032,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="n">
@@ -5058,7 +5053,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="n">
@@ -5079,7 +5074,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="6"/>
       <c r="J20" s="6" t="n">
@@ -5100,7 +5095,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="6"/>
       <c r="J21" s="6" t="n">
@@ -5121,7 +5116,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="6"/>
       <c r="J22" s="6" t="n">
@@ -5142,7 +5137,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="6"/>
       <c r="K23" s="6" t="n">
@@ -5163,7 +5158,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="6"/>
       <c r="P24" s="6" t="n">
@@ -5184,7 +5179,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="6"/>
       <c r="K25" s="6" t="n">
@@ -5205,7 +5200,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="6"/>
       <c r="O26" s="6" t="n">
@@ -5226,7 +5221,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="6"/>
       <c r="G27" s="6" t="n">
@@ -5247,7 +5242,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="6"/>
       <c r="F28" s="6" t="n">
@@ -5268,7 +5263,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="6"/>
       <c r="P29" s="6" t="n">
@@ -5289,7 +5284,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="6"/>
       <c r="G30" s="6" t="n">
@@ -5310,7 +5305,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="6"/>
       <c r="E31" s="6" t="n">
@@ -5331,7 +5326,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="6"/>
       <c r="I32" s="6" t="n">
@@ -5352,7 +5347,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="6"/>
       <c r="D33" s="6" t="n">
@@ -5373,7 +5368,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="n">
@@ -5394,7 +5389,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="6"/>
       <c r="I35" s="6" t="n">
@@ -5415,7 +5410,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="n">
@@ -5436,7 +5431,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="6"/>
       <c r="H37" s="6" t="n">
@@ -5457,7 +5452,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="6"/>
       <c r="O38" s="6" t="n">
@@ -5478,7 +5473,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="6"/>
       <c r="H39" s="6" t="n">
